--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3980.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3980.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mominul Haque</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>30/11/2012</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3451</t>
+          <t>3451</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3492</t>
+          <t>3492</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3493</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3494</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3495</t>
+          <t>3495</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1027,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1079,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,7 +1131,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3573</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3614</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1172,7 +1235,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1224,7 +1287,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,7 +1339,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1328,7 +1391,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1380,7 +1443,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1432,7 +1495,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1536,7 +1599,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3701</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4204</t>
+          <t>4204</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1939,7 +2002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2024,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1998,7 +2061,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3452</t>
+          <t>3452</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2035,7 +2098,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2072,7 +2135,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3494</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2109,7 +2172,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2146,7 +2209,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3615</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2183,7 +2246,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2220,7 +2283,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2257,7 +2320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2294,7 +2357,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2331,7 +2394,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3699</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2368,7 +2431,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3702</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2405,7 +2468,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2431,6 +2494,597 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>0/15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3495</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3567</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3570</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12.55%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3573</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10.36%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3614</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.35%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3615</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6.58%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3616</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.52%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3627</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15.64%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3630</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.21%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3699</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11.03%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3701</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.15%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3702</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5.05%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3765</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>7.56%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/BAN/PlayerPerformance_3980.xlsx
+++ b/bin/sheets/main_db/teams/BAN/PlayerPerformance_3980.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>30/11/2012</t>
@@ -812,6 +812,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>25/03/2013</t>
@@ -824,7 +825,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2500,595 +2501,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3495</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3567</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3570</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12.55%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3573</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10.36%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3614</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26.35%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3615</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.58%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3616</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3619</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3623</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22.52%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3627</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15.64%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3630</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3643</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.21%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3661</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3699</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>11.03%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3701</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>13.15%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3702</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.05%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3754</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.12%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3765</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.42%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4198</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>7.56%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4204</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.09%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>